--- a/作业1/v5-问题回答和成绩-C语言_周二.xlsx
+++ b/作业1/v5-问题回答和成绩-C语言_周二.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\上课\数据仓库与数据挖掘\2021\作业1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py-project\data_mining\作业1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="C语言" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="180">
   <si>
     <t>学号</t>
   </si>
@@ -501,10 +501,6 @@
   </si>
   <si>
     <t>模板学习</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>现在的模式</t>
@@ -612,7 +608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1410,7 +1406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1674,10 +1670,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BN1" sqref="BN1"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1"/>
+      <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1741,13 +1737,13 @@
         <v>58</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>59</v>
@@ -1762,13 +1758,13 @@
         <v>62</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>63</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>64</v>
@@ -1789,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y1" s="14" t="s">
         <v>70</v>
@@ -1855,10 +1851,10 @@
         <v>93</v>
       </c>
       <c r="AT1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU1" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.15">
@@ -1875,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1893,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1911,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
@@ -1920,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -1929,13 +1925,13 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="Z2" s="1">
         <v>1</v>
@@ -1947,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
@@ -1959,25 +1955,25 @@
         <v>1</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH2" s="1">
         <v>1</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="1">
         <v>1</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN2" s="1">
         <v>1</v>
@@ -11227,8 +11223,8 @@
       <c r="W67" s="1">
         <v>60</v>
       </c>
-      <c r="X67" s="2" t="s">
-        <v>153</v>
+      <c r="X67" s="2">
+        <v>8</v>
       </c>
       <c r="Y67" s="1">
         <v>50</v>
@@ -11273,10 +11269,10 @@
         <v>10</v>
       </c>
       <c r="AM67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN67" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AN67" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AO67" s="6">
         <v>64</v>
@@ -11419,7 +11415,7 @@
         <v>122</v>
       </c>
       <c r="AN68" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO68" s="6">
         <v>61</v>
@@ -11559,10 +11555,10 @@
         <v>10</v>
       </c>
       <c r="AM69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN69" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="AN69" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="AO69" s="6">
         <v>92</v>
@@ -11702,7 +11698,7 @@
         <v>50</v>
       </c>
       <c r="AM70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN70" s="1" t="s">
         <v>19</v>
